--- a/Mappe_CAU Semesterferien.xlsx
+++ b/Mappe_CAU Semesterferien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\01_MSc\opencampus_Data Science with R\Gruppe 4\Gruppe-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\01_MSc\opencampus_Data Science with R\Gruppenarbeit\Gruppe-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1139DD36-177D-4C08-81D5-B7C442170C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEDD042-4203-49B8-B839-426CC006CB87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F291C422-17D6-4DCE-91E9-7D45F032AF11}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="7500" windowHeight="8760" xr2:uid="{F291C422-17D6-4DCE-91E9-7D45F032AF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>CAU_Semesterferien</t>
+    <t>Semesterferien</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B2116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
